--- a/Code/Results/Cases/Case_5_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8095231131571552</v>
+        <v>0.3194395642580616</v>
       </c>
       <c r="C2">
-        <v>0.1298164218946312</v>
+        <v>0.04439482012189444</v>
       </c>
       <c r="D2">
-        <v>0.1506094632909623</v>
+        <v>0.1841706617995271</v>
       </c>
       <c r="E2">
-        <v>0.1023998897783578</v>
+        <v>0.1605469713034111</v>
       </c>
       <c r="F2">
-        <v>0.7347786655362967</v>
+        <v>1.458553068320995</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3204423688224338</v>
+        <v>0.7272070302619085</v>
       </c>
       <c r="J2">
-        <v>0.09886811680185303</v>
+        <v>0.1822206034043532</v>
       </c>
       <c r="K2">
-        <v>0.8871807668870417</v>
+        <v>0.3387114728725464</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3222204733471798</v>
+        <v>0.2267650527506433</v>
       </c>
       <c r="N2">
-        <v>0.8507243481378408</v>
+        <v>1.782897933633262</v>
       </c>
       <c r="O2">
-        <v>1.684672248075543</v>
+        <v>3.535481513871957</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7036579956728701</v>
+        <v>0.2884028525818962</v>
       </c>
       <c r="C3">
-        <v>0.1129760459292584</v>
+        <v>0.03943736159244793</v>
       </c>
       <c r="D3">
-        <v>0.1350031837248906</v>
+        <v>0.1807656356292568</v>
       </c>
       <c r="E3">
-        <v>0.09444209974995132</v>
+        <v>0.159330819151652</v>
       </c>
       <c r="F3">
-        <v>0.7118647979220398</v>
+        <v>1.462025641079492</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3231945498094042</v>
+        <v>0.732623383212438</v>
       </c>
       <c r="J3">
-        <v>0.09376517762935777</v>
+        <v>0.1820152255282252</v>
       </c>
       <c r="K3">
-        <v>0.7712443070804227</v>
+        <v>0.3046738519000485</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2820428692454442</v>
+        <v>0.2163156387702116</v>
       </c>
       <c r="N3">
-        <v>0.8899391971202837</v>
+        <v>1.800013050368399</v>
       </c>
       <c r="O3">
-        <v>1.659566250981783</v>
+        <v>3.552438498571661</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.638742904403756</v>
+        <v>0.2693925950910909</v>
       </c>
       <c r="C4">
-        <v>0.1026509596912888</v>
+        <v>0.036393739878406</v>
       </c>
       <c r="D4">
-        <v>0.1255183316715858</v>
+        <v>0.1787478435328183</v>
       </c>
       <c r="E4">
-        <v>0.08966188166061428</v>
+        <v>0.1586532487716106</v>
       </c>
       <c r="F4">
-        <v>0.6989611341965798</v>
+        <v>1.464836379882435</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3254597060602542</v>
+        <v>0.736274236775099</v>
       </c>
       <c r="J4">
-        <v>0.09076712265468245</v>
+        <v>0.1819707202895415</v>
       </c>
       <c r="K4">
-        <v>0.7001532495149547</v>
+        <v>0.2838141513817334</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2575184277588782</v>
+        <v>0.2099892080369123</v>
       </c>
       <c r="N4">
-        <v>0.9150343282226463</v>
+        <v>1.811060716742305</v>
       </c>
       <c r="O4">
-        <v>1.647106684569692</v>
+        <v>3.564513812197831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6123035124210219</v>
+        <v>0.2616579329380215</v>
       </c>
       <c r="C5">
-        <v>0.09844561712512245</v>
+        <v>0.03515356876310705</v>
       </c>
       <c r="D5">
-        <v>0.1216760989121042</v>
+        <v>0.1779440075164018</v>
       </c>
       <c r="E5">
-        <v>0.08773916583676211</v>
+        <v>0.1583945698804499</v>
       </c>
       <c r="F5">
-        <v>0.6939839599186612</v>
+        <v>1.466152597084033</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.326522594533067</v>
+        <v>0.7378438015603876</v>
       </c>
       <c r="J5">
-        <v>0.08957782773860856</v>
+        <v>0.1819731315527093</v>
       </c>
       <c r="K5">
-        <v>0.6711979136608335</v>
+        <v>0.2753241151065851</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2475569260864283</v>
+        <v>0.2074338411865568</v>
       </c>
       <c r="N5">
-        <v>0.9255112340183338</v>
+        <v>1.815698279955531</v>
       </c>
       <c r="O5">
-        <v>1.642743548266964</v>
+        <v>3.569853222022701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6079139012614405</v>
+        <v>0.2603743481243725</v>
       </c>
       <c r="C6">
-        <v>0.09774741320664759</v>
+        <v>0.03494764886640667</v>
       </c>
       <c r="D6">
-        <v>0.1210394384747815</v>
+        <v>0.1778116471869708</v>
       </c>
       <c r="E6">
-        <v>0.08742138728534954</v>
+        <v>0.1583526709745087</v>
       </c>
       <c r="F6">
-        <v>0.6931741477498221</v>
+        <v>1.46638147647532</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3267073932789302</v>
+        <v>0.7381093690524168</v>
       </c>
       <c r="J6">
-        <v>0.08938226123656534</v>
+        <v>0.181974773816922</v>
       </c>
       <c r="K6">
-        <v>0.6663905480962313</v>
+        <v>0.2739149981540976</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2459046705642827</v>
+        <v>0.2070109012825725</v>
       </c>
       <c r="N6">
-        <v>0.9272658911336413</v>
+        <v>1.816476531706601</v>
       </c>
       <c r="O6">
-        <v>1.642061368082508</v>
+        <v>3.570765118965383</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6383862866045149</v>
+        <v>0.2692882327829125</v>
       </c>
       <c r="C7">
-        <v>0.1025942379951061</v>
+        <v>0.0363770138939401</v>
       </c>
       <c r="D7">
-        <v>0.1254664232139078</v>
+        <v>0.1787369279651614</v>
       </c>
       <c r="E7">
-        <v>0.0896358507205548</v>
+        <v>0.1586496894742204</v>
       </c>
       <c r="F7">
-        <v>0.6988928871814082</v>
+        <v>1.464853438962265</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.325473480676532</v>
+        <v>0.7362950731662252</v>
       </c>
       <c r="J7">
-        <v>0.09075095407374789</v>
+        <v>0.1819706695737722</v>
       </c>
       <c r="K7">
-        <v>0.6997626990243049</v>
+        <v>0.2836996087389991</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2573839573876526</v>
+        <v>0.2099546532866974</v>
       </c>
       <c r="N7">
-        <v>0.9151746162715706</v>
+        <v>1.811122711660497</v>
       </c>
       <c r="O7">
-        <v>1.647044987216844</v>
+        <v>3.564584125991175</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7729980605844275</v>
+        <v>0.3087287655411899</v>
       </c>
       <c r="C8">
-        <v>0.124005787603565</v>
+        <v>0.04268546499628201</v>
       </c>
       <c r="D8">
-        <v>0.1452072063484735</v>
+        <v>0.1829815338158767</v>
       </c>
       <c r="E8">
-        <v>0.09963322089256721</v>
+        <v>0.1601133174701808</v>
       </c>
       <c r="F8">
-        <v>0.7266287144652139</v>
+        <v>1.459609685274124</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3212689344153787</v>
+        <v>0.7290071194891006</v>
       </c>
       <c r="J8">
-        <v>0.09707961103770657</v>
+        <v>0.1821328705249456</v>
       </c>
       <c r="K8">
-        <v>0.8471807536895142</v>
+        <v>0.3269673964486515</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3083347108564709</v>
+        <v>0.2231436166929797</v>
       </c>
       <c r="N8">
-        <v>0.8640312767998299</v>
+        <v>1.788687396432916</v>
       </c>
       <c r="O8">
-        <v>1.675384411071278</v>
+        <v>3.540983155448288</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.038038639376737</v>
+        <v>0.3864215199585033</v>
       </c>
       <c r="C9">
-        <v>0.1661888276441488</v>
+        <v>0.05505650435607379</v>
       </c>
       <c r="D9">
-        <v>0.1847692627907804</v>
+        <v>0.1918799720279907</v>
       </c>
       <c r="E9">
-        <v>0.1201439318329207</v>
+        <v>0.1635303835630531</v>
       </c>
       <c r="F9">
-        <v>0.7908334754343613</v>
+        <v>1.45470374531218</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3178176280735272</v>
+        <v>0.7172940576753675</v>
       </c>
       <c r="J9">
-        <v>0.1106367574688463</v>
+        <v>0.1830973222097398</v>
       </c>
       <c r="K9">
-        <v>1.137454111630035</v>
+        <v>0.4121104515646721</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4095924059243359</v>
+        <v>0.2497109429754687</v>
       </c>
       <c r="N9">
-        <v>0.7720570822958259</v>
+        <v>1.74896564791001</v>
       </c>
       <c r="O9">
-        <v>1.755785229395457</v>
+        <v>3.507891647955432</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.233992791819816</v>
+        <v>0.4436968565299821</v>
       </c>
       <c r="C10">
-        <v>0.1974152535196936</v>
+        <v>0.06414379003196302</v>
       </c>
       <c r="D10">
-        <v>0.2144693225851171</v>
+        <v>0.1987639042002201</v>
       </c>
       <c r="E10">
-        <v>0.1358627281303377</v>
+        <v>0.166372340129552</v>
       </c>
       <c r="F10">
-        <v>0.8448214691941871</v>
+        <v>1.454369587396641</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.318538811246448</v>
+        <v>0.7102584158738985</v>
       </c>
       <c r="J10">
-        <v>0.1214056097143938</v>
+        <v>0.1841988407840986</v>
       </c>
       <c r="K10">
-        <v>1.352106220737909</v>
+        <v>0.4748260051609918</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4850979919708394</v>
+        <v>0.2696520957710078</v>
       </c>
       <c r="N10">
-        <v>0.7099119812785375</v>
+        <v>1.722383528284893</v>
       </c>
       <c r="O10">
-        <v>1.832010030038106</v>
+        <v>3.49160906164559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.323541989836571</v>
+        <v>0.4697914353129988</v>
       </c>
       <c r="C11">
-        <v>0.2116996443065915</v>
+        <v>0.06827712184980328</v>
       </c>
       <c r="D11">
-        <v>0.2281454753829877</v>
+        <v>0.2019699361011646</v>
       </c>
       <c r="E11">
-        <v>0.1431775773597046</v>
+        <v>0.1677367983865565</v>
       </c>
       <c r="F11">
-        <v>0.8710584005504955</v>
+        <v>1.454926148821798</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3196526437003193</v>
+        <v>0.7073982118876181</v>
       </c>
       <c r="J11">
-        <v>0.1265059501480081</v>
+        <v>0.1847850570588179</v>
       </c>
       <c r="K11">
-        <v>1.450217040476161</v>
+        <v>0.5033882239912373</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5197582000508731</v>
+        <v>0.2788141604497412</v>
       </c>
       <c r="N11">
-        <v>0.6829032817388936</v>
+        <v>1.710854663553303</v>
       </c>
       <c r="O11">
-        <v>1.870887189084954</v>
+        <v>3.485943132268517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.35752258100004</v>
+        <v>0.4796780476887932</v>
       </c>
       <c r="C12">
-        <v>0.2171226113932647</v>
+        <v>0.06984218311505686</v>
       </c>
       <c r="D12">
-        <v>0.2333504149820271</v>
+        <v>0.2031946012229184</v>
       </c>
       <c r="E12">
-        <v>0.1459731442714087</v>
+        <v>0.1682637425173645</v>
       </c>
       <c r="F12">
-        <v>0.8812522057260139</v>
+        <v>1.455238639386209</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3201943947864514</v>
+        <v>0.7063640362688304</v>
       </c>
       <c r="J12">
-        <v>0.1284685659168048</v>
+        <v>0.1850192592821145</v>
       </c>
       <c r="K12">
-        <v>1.487449566853741</v>
+        <v>0.514208229730599</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5329340553277149</v>
+        <v>0.2822964811779514</v>
       </c>
       <c r="N12">
-        <v>0.6728647908281897</v>
+        <v>1.706569980049891</v>
       </c>
       <c r="O12">
-        <v>1.886255412874021</v>
+        <v>3.484047744935879</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.350200936788781</v>
+        <v>0.4775485680616498</v>
       </c>
       <c r="C13">
-        <v>0.2159540259603148</v>
+        <v>0.06950512654360352</v>
       </c>
       <c r="D13">
-        <v>0.2322282403812892</v>
+        <v>0.2029303774024527</v>
       </c>
       <c r="E13">
-        <v>0.145369898047786</v>
+        <v>0.1681498004144331</v>
       </c>
       <c r="F13">
-        <v>0.8790450068837288</v>
+        <v>1.455166816891534</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3200722677298771</v>
+        <v>0.7065845890042262</v>
       </c>
       <c r="J13">
-        <v>0.128044455332379</v>
+        <v>0.1849682768113823</v>
       </c>
       <c r="K13">
-        <v>1.479427092515635</v>
+        <v>0.5118777741094505</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5300940426783853</v>
+        <v>0.2815459330053045</v>
       </c>
       <c r="N13">
-        <v>0.6750182202942985</v>
+        <v>1.707489158351761</v>
       </c>
       <c r="O13">
-        <v>1.882916149087976</v>
+        <v>3.484444826859772</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.326336116929554</v>
+        <v>0.470604712584219</v>
       </c>
       <c r="C14">
-        <v>0.2121455047247451</v>
+        <v>0.06840588360722677</v>
       </c>
       <c r="D14">
-        <v>0.2285731526636425</v>
+        <v>0.2020704779744591</v>
       </c>
       <c r="E14">
-        <v>0.1434070457168559</v>
+        <v>0.1677799451796069</v>
       </c>
       <c r="F14">
-        <v>0.8718917688019019</v>
+        <v>1.454949819642763</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3196947680761895</v>
+        <v>0.7073121492882457</v>
       </c>
       <c r="J14">
-        <v>0.1266667765026241</v>
+        <v>0.1848040803664475</v>
       </c>
       <c r="K14">
-        <v>1.45327849827828</v>
+        <v>0.5042783132300599</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5208411327168889</v>
+        <v>0.2791003967827876</v>
       </c>
       <c r="N14">
-        <v>0.6820735729054466</v>
+        <v>1.71050053562765</v>
       </c>
       <c r="O14">
-        <v>1.872138339233715</v>
+        <v>3.485782184784739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.311727729109492</v>
+        <v>0.4663520563918269</v>
       </c>
       <c r="C15">
-        <v>0.2098145432118486</v>
+        <v>0.06773254511311677</v>
       </c>
       <c r="D15">
-        <v>0.2263377722198072</v>
+        <v>0.2015451435021305</v>
       </c>
       <c r="E15">
-        <v>0.1422081353434912</v>
+        <v>0.1675547320362369</v>
       </c>
       <c r="F15">
-        <v>0.8675443913109149</v>
+        <v>1.454830146457326</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3194793762619526</v>
+        <v>0.7077641714203509</v>
       </c>
       <c r="J15">
-        <v>0.1258270443061207</v>
+        <v>0.1847050952407514</v>
       </c>
       <c r="K15">
-        <v>1.437272569527778</v>
+        <v>0.4996239426338605</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5151802530933693</v>
+        <v>0.2776041021230427</v>
       </c>
       <c r="N15">
-        <v>0.6864200461842715</v>
+        <v>1.712355646565843</v>
       </c>
       <c r="O15">
-        <v>1.865622078297747</v>
+        <v>3.486633929905139</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.228149728818295</v>
+        <v>0.4419922668679988</v>
       </c>
       <c r="C16">
-        <v>0.1964835300072565</v>
+        <v>0.06387365088511388</v>
       </c>
       <c r="D16">
-        <v>0.2135790752831781</v>
+        <v>0.1985558728129604</v>
       </c>
       <c r="E16">
-        <v>0.1353881568962834</v>
+        <v>0.1662846070079844</v>
       </c>
       <c r="F16">
-        <v>0.8431420278596278</v>
+        <v>1.454347459495793</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3184824177722376</v>
+        <v>0.7104521838597577</v>
       </c>
       <c r="J16">
-        <v>0.1210765347537262</v>
+        <v>0.184162240920493</v>
       </c>
       <c r="K16">
-        <v>1.345704910316073</v>
+        <v>0.4729600038813544</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.482839644124283</v>
+        <v>0.2690551418616565</v>
       </c>
       <c r="N16">
-        <v>0.7117030961533768</v>
+        <v>1.723148306947505</v>
       </c>
       <c r="O16">
-        <v>1.829557405984445</v>
+        <v>3.492014362532643</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176989932382668</v>
+        <v>0.427058110318228</v>
       </c>
       <c r="C17">
-        <v>0.1883273361064255</v>
+        <v>0.0615061634314884</v>
       </c>
       <c r="D17">
-        <v>0.2057959855416556</v>
+        <v>0.1967410598429638</v>
       </c>
       <c r="E17">
-        <v>0.1312477616427472</v>
+        <v>0.1655237404939811</v>
       </c>
       <c r="F17">
-        <v>0.8286135403391199</v>
+        <v>1.454232715915367</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.318076898237976</v>
+        <v>0.7121883489067251</v>
       </c>
       <c r="J17">
-        <v>0.1182154238255322</v>
+        <v>0.1838510022023669</v>
       </c>
       <c r="K17">
-        <v>1.289659257991502</v>
+        <v>0.4566104820271164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4630837830010606</v>
+        <v>0.2638337274120985</v>
       </c>
       <c r="N17">
-        <v>0.7275418594873595</v>
+        <v>1.72991358765178</v>
       </c>
       <c r="O17">
-        <v>1.808538236364001</v>
+        <v>3.495760885537067</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.147601903543659</v>
+        <v>0.418472152152674</v>
       </c>
       <c r="C18">
-        <v>0.183643424245389</v>
+        <v>0.06014440233161622</v>
       </c>
       <c r="D18">
-        <v>0.2013347857372452</v>
+        <v>0.1957042455129852</v>
       </c>
       <c r="E18">
-        <v>0.1288816547257063</v>
+        <v>0.1650928559844118</v>
       </c>
       <c r="F18">
-        <v>0.8204139416371845</v>
+        <v>1.454233422070523</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3179171715736544</v>
+        <v>0.713218981146337</v>
       </c>
       <c r="J18">
-        <v>0.1165886152996762</v>
+        <v>0.1836800003621235</v>
       </c>
       <c r="K18">
-        <v>1.257466152613176</v>
+        <v>0.4472097722238004</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4517497588996804</v>
+        <v>0.2608390603497455</v>
       </c>
       <c r="N18">
-        <v>0.7367701382154328</v>
+        <v>1.733857833716041</v>
       </c>
       <c r="O18">
-        <v>1.79684141970921</v>
+        <v>3.498079678553097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137657765242409</v>
+        <v>0.4155657592212378</v>
       </c>
       <c r="C19">
-        <v>0.1820587191659513</v>
+        <v>0.05968332774365592</v>
       </c>
       <c r="D19">
-        <v>0.1998268824524985</v>
+        <v>0.1953544064676009</v>
       </c>
       <c r="E19">
-        <v>0.1280831080672442</v>
+        <v>0.1649481259500511</v>
       </c>
       <c r="F19">
-        <v>0.8176641221110756</v>
+        <v>1.454245122411535</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3178755119404464</v>
+        <v>0.7135734383317249</v>
       </c>
       <c r="J19">
-        <v>0.1160409732236545</v>
+        <v>0.1836234793779781</v>
       </c>
       <c r="K19">
-        <v>1.246573093333183</v>
+        <v>0.4440274037990832</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4479170654276103</v>
+        <v>0.2598265925674781</v>
       </c>
       <c r="N19">
-        <v>0.7399147549687468</v>
+        <v>1.73520239598832</v>
       </c>
       <c r="O19">
-        <v>1.792947313866222</v>
+        <v>3.498892936468678</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182431994105173</v>
+        <v>0.4286474902186228</v>
       </c>
       <c r="C20">
-        <v>0.1891948031678083</v>
+        <v>0.06175819164961638</v>
       </c>
       <c r="D20">
-        <v>0.2066228959238003</v>
+        <v>0.1969335241752788</v>
       </c>
       <c r="E20">
-        <v>0.1316869123988695</v>
+        <v>0.1656040382178006</v>
       </c>
       <c r="F20">
-        <v>0.8301437727815255</v>
+        <v>1.454238028139628</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.318112408541257</v>
+        <v>0.7120002157072172</v>
       </c>
       <c r="J20">
-        <v>0.1185180296370163</v>
+        <v>0.1838833048243984</v>
       </c>
       <c r="K20">
-        <v>1.295620882946935</v>
+        <v>0.4583505995758514</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4651837828871876</v>
+        <v>0.2643886722104511</v>
       </c>
       <c r="N20">
-        <v>0.7258435041185725</v>
+        <v>1.729187922851199</v>
       </c>
       <c r="O20">
-        <v>1.810734807969084</v>
+        <v>3.495345100933434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.333343790886261</v>
+        <v>0.472644155581122</v>
       </c>
       <c r="C21">
-        <v>0.2132637660191108</v>
+        <v>0.06872876228698033</v>
       </c>
       <c r="D21">
-        <v>0.2296460138662439</v>
+        <v>0.2023227641316225</v>
       </c>
       <c r="E21">
-        <v>0.1439828721685679</v>
+        <v>0.1678883027366389</v>
       </c>
       <c r="F21">
-        <v>0.8739856913213089</v>
+        <v>1.455010797263313</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.31980233526712</v>
+        <v>0.7070971196353888</v>
       </c>
       <c r="J21">
-        <v>0.1270705680468396</v>
+        <v>0.1848519775486963</v>
       </c>
       <c r="K21">
-        <v>1.460956690112056</v>
+        <v>0.5065103520493608</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5235575095775289</v>
+        <v>0.2798183630344013</v>
       </c>
       <c r="N21">
-        <v>0.6799960482901604</v>
+        <v>1.709613821348324</v>
       </c>
       <c r="O21">
-        <v>1.87528615489461</v>
+        <v>3.485382582131763</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.43238877172999</v>
+        <v>0.5014283491991307</v>
       </c>
       <c r="C22">
-        <v>0.2290757652091315</v>
+        <v>0.07328357554058584</v>
       </c>
       <c r="D22">
-        <v>0.2448461160847017</v>
+        <v>0.2059067421415364</v>
       </c>
       <c r="E22">
-        <v>0.1521691668717722</v>
+        <v>0.1694409439306241</v>
       </c>
       <c r="F22">
-        <v>0.9041541467350953</v>
+        <v>1.45610874933692</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3216096127625647</v>
+        <v>0.7041778061416899</v>
       </c>
       <c r="J22">
-        <v>0.1328433115041463</v>
+        <v>0.1855562461516342</v>
       </c>
       <c r="K22">
-        <v>1.569486862794975</v>
+        <v>0.538009243054006</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5620071500815627</v>
+        <v>0.2899773384331255</v>
       </c>
       <c r="N22">
-        <v>0.6511383387998659</v>
+        <v>1.697293431696187</v>
       </c>
       <c r="O22">
-        <v>1.92126271937974</v>
+        <v>3.48032963523724</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.379484588519006</v>
+        <v>0.4860631367975827</v>
       </c>
       <c r="C23">
-        <v>0.2206283125232176</v>
+        <v>0.07085268662369515</v>
       </c>
       <c r="D23">
-        <v>0.2367187279338481</v>
+        <v>0.2039882848689842</v>
       </c>
       <c r="E23">
-        <v>0.1477855637958534</v>
+        <v>0.1686068195907389</v>
       </c>
       <c r="F23">
-        <v>0.8879080519177762</v>
+        <v>1.455468553610487</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3205783081891376</v>
+        <v>0.7057098145275482</v>
       </c>
       <c r="J23">
-        <v>0.1297447498713424</v>
+        <v>0.185173860171524</v>
       </c>
       <c r="K23">
-        <v>1.511514288340095</v>
+        <v>0.5211957127045537</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5414564475187902</v>
+        <v>0.2845485264382717</v>
       </c>
       <c r="N23">
-        <v>0.6664363409221807</v>
+        <v>1.703825821957159</v>
       </c>
       <c r="O23">
-        <v>1.896362914059893</v>
+        <v>3.482893131832355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.17997156279776</v>
+        <v>0.4279289318751864</v>
       </c>
       <c r="C24">
-        <v>0.1888026053125316</v>
+        <v>0.06164425174588928</v>
       </c>
       <c r="D24">
-        <v>0.2062490081665516</v>
+        <v>0.1968464906540532</v>
       </c>
       <c r="E24">
-        <v>0.131488328068091</v>
+        <v>0.1655677152179535</v>
       </c>
       <c r="F24">
-        <v>0.8294514793537076</v>
+        <v>1.454235418787391</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3180961261939039</v>
+        <v>0.7120851695276897</v>
       </c>
       <c r="J24">
-        <v>0.118381165395725</v>
+        <v>0.183868676095166</v>
       </c>
       <c r="K24">
-        <v>1.292925545191764</v>
+        <v>0.4575638959768469</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4642342989859003</v>
+        <v>0.2641377592448748</v>
       </c>
       <c r="N24">
-        <v>0.7266109500273905</v>
+        <v>1.729515825221105</v>
       </c>
       <c r="O24">
-        <v>1.809740534478806</v>
+        <v>3.495532563587517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9661663309703101</v>
+        <v>0.3653680542051063</v>
       </c>
       <c r="C25">
-        <v>0.1547448450642719</v>
+        <v>0.05170997943602629</v>
       </c>
       <c r="D25">
-        <v>0.1739641090231885</v>
+        <v>0.1894116032949</v>
       </c>
       <c r="E25">
-        <v>0.1144885397320259</v>
+        <v>0.1625476303474507</v>
       </c>
       <c r="F25">
-        <v>0.7723304779893496</v>
+        <v>1.455456083501055</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3182047028653869</v>
+        <v>0.7201869061991992</v>
       </c>
       <c r="J25">
-        <v>0.1068355171114561</v>
+        <v>0.1827673282248909</v>
       </c>
       <c r="K25">
-        <v>1.058734290903061</v>
+        <v>0.3890473657480129</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3820265402296457</v>
+        <v>0.2424491439794423</v>
       </c>
       <c r="N25">
-        <v>0.7960124240200592</v>
+        <v>1.75925431276824</v>
       </c>
       <c r="O25">
-        <v>1.731175372652331</v>
+        <v>3.515432863162175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3194395642580616</v>
+        <v>0.8095231131571552</v>
       </c>
       <c r="C2">
-        <v>0.04439482012189444</v>
+        <v>0.1298164218945885</v>
       </c>
       <c r="D2">
-        <v>0.1841706617995271</v>
+        <v>0.1506094632909338</v>
       </c>
       <c r="E2">
-        <v>0.1605469713034111</v>
+        <v>0.1023998897783471</v>
       </c>
       <c r="F2">
-        <v>1.458553068320995</v>
+        <v>0.7347786655362825</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7272070302619085</v>
+        <v>0.3204423688224303</v>
       </c>
       <c r="J2">
-        <v>0.1822206034043532</v>
+        <v>0.09886811680189567</v>
       </c>
       <c r="K2">
-        <v>0.3387114728725464</v>
+        <v>0.8871807668870417</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2267650527506433</v>
+        <v>0.3222204733471727</v>
       </c>
       <c r="N2">
-        <v>1.782897933633262</v>
+        <v>0.8507243481378133</v>
       </c>
       <c r="O2">
-        <v>3.535481513871957</v>
+        <v>1.684672248075486</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2884028525818962</v>
+        <v>0.7036579956728701</v>
       </c>
       <c r="C3">
-        <v>0.03943736159244793</v>
+        <v>0.1129760459297131</v>
       </c>
       <c r="D3">
-        <v>0.1807656356292568</v>
+        <v>0.1350031837244927</v>
       </c>
       <c r="E3">
-        <v>0.159330819151652</v>
+        <v>0.09444209974995488</v>
       </c>
       <c r="F3">
-        <v>1.462025641079492</v>
+        <v>0.7118647979220185</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.732623383212438</v>
+        <v>0.3231945498094042</v>
       </c>
       <c r="J3">
-        <v>0.1820152255282252</v>
+        <v>0.09376517762939329</v>
       </c>
       <c r="K3">
-        <v>0.3046738519000485</v>
+        <v>0.7712443070803943</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2163156387702116</v>
+        <v>0.2820428692454513</v>
       </c>
       <c r="N3">
-        <v>1.800013050368399</v>
+        <v>0.8899391971202761</v>
       </c>
       <c r="O3">
-        <v>3.552438498571661</v>
+        <v>1.659566250981783</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2693925950910909</v>
+        <v>0.638742904403756</v>
       </c>
       <c r="C4">
-        <v>0.036393739878406</v>
+        <v>0.1026509596909904</v>
       </c>
       <c r="D4">
-        <v>0.1787478435328183</v>
+        <v>0.1255183316715716</v>
       </c>
       <c r="E4">
-        <v>0.1586532487716106</v>
+        <v>0.08966188166061428</v>
       </c>
       <c r="F4">
-        <v>1.464836379882435</v>
+        <v>0.6989611341965798</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.736274236775099</v>
+        <v>0.3254597060602684</v>
       </c>
       <c r="J4">
-        <v>0.1819707202895415</v>
+        <v>0.09076712265476061</v>
       </c>
       <c r="K4">
-        <v>0.2838141513817334</v>
+        <v>0.7001532495149547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2099892080369123</v>
+        <v>0.2575184277588782</v>
       </c>
       <c r="N4">
-        <v>1.811060716742305</v>
+        <v>0.9150343282226956</v>
       </c>
       <c r="O4">
-        <v>3.564513812197831</v>
+        <v>1.647106684569692</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2616579329380215</v>
+        <v>0.6123035124207945</v>
       </c>
       <c r="C5">
-        <v>0.03515356876310705</v>
+        <v>0.09844561712534983</v>
       </c>
       <c r="D5">
-        <v>0.1779440075164018</v>
+        <v>0.1216760989121468</v>
       </c>
       <c r="E5">
-        <v>0.1583945698804499</v>
+        <v>0.08773916583672658</v>
       </c>
       <c r="F5">
-        <v>1.466152597084033</v>
+        <v>0.693983959918647</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7378438015603876</v>
+        <v>0.3265225945330563</v>
       </c>
       <c r="J5">
-        <v>0.1819731315527093</v>
+        <v>0.08957782773858725</v>
       </c>
       <c r="K5">
-        <v>0.2753241151065851</v>
+        <v>0.6711979136606629</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2074338411865568</v>
+        <v>0.2475569260864177</v>
       </c>
       <c r="N5">
-        <v>1.815698279955531</v>
+        <v>0.9255112340182521</v>
       </c>
       <c r="O5">
-        <v>3.569853222022701</v>
+        <v>1.642743548266864</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2603743481243725</v>
+        <v>0.6079139012614689</v>
       </c>
       <c r="C6">
-        <v>0.03494764886640667</v>
+        <v>0.09774741320663338</v>
       </c>
       <c r="D6">
-        <v>0.1778116471869708</v>
+        <v>0.1210394384748241</v>
       </c>
       <c r="E6">
-        <v>0.1583526709745087</v>
+        <v>0.08742138728533533</v>
       </c>
       <c r="F6">
-        <v>1.46638147647532</v>
+        <v>0.6931741477498576</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7381093690524168</v>
+        <v>0.3267073932789444</v>
       </c>
       <c r="J6">
-        <v>0.181974773816922</v>
+        <v>0.08938226123643034</v>
       </c>
       <c r="K6">
-        <v>0.2739149981540976</v>
+        <v>0.6663905480960892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2070109012825725</v>
+        <v>0.2459046705642933</v>
       </c>
       <c r="N6">
-        <v>1.816476531706601</v>
+        <v>0.9272658911336382</v>
       </c>
       <c r="O6">
-        <v>3.570765118965383</v>
+        <v>1.642061368082494</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2692882327829125</v>
+        <v>0.6383862866045149</v>
       </c>
       <c r="C7">
-        <v>0.0363770138939401</v>
+        <v>0.1025942379949498</v>
       </c>
       <c r="D7">
-        <v>0.1787369279651614</v>
+        <v>0.1254664232136378</v>
       </c>
       <c r="E7">
-        <v>0.1586496894742204</v>
+        <v>0.08963585072057256</v>
       </c>
       <c r="F7">
-        <v>1.464853438962265</v>
+        <v>0.6988928871813513</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7362950731662252</v>
+        <v>0.3254734806765356</v>
       </c>
       <c r="J7">
-        <v>0.1819706695737722</v>
+        <v>0.09075095407383316</v>
       </c>
       <c r="K7">
-        <v>0.2836996087389991</v>
+        <v>0.6997626990243901</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2099546532866974</v>
+        <v>0.2573839573876526</v>
       </c>
       <c r="N7">
-        <v>1.811122711660497</v>
+        <v>0.9151746162716141</v>
       </c>
       <c r="O7">
-        <v>3.564584125991175</v>
+        <v>1.647044987216844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3087287655411899</v>
+        <v>0.7729980605843139</v>
       </c>
       <c r="C8">
-        <v>0.04268546499628201</v>
+        <v>0.1240057876033234</v>
       </c>
       <c r="D8">
-        <v>0.1829815338158767</v>
+        <v>0.145207206348573</v>
       </c>
       <c r="E8">
-        <v>0.1601133174701808</v>
+        <v>0.09963322089257076</v>
       </c>
       <c r="F8">
-        <v>1.459609685274124</v>
+        <v>0.7266287144651926</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7290071194891006</v>
+        <v>0.3212689344153645</v>
       </c>
       <c r="J8">
-        <v>0.1821328705249456</v>
+        <v>0.09707961103772789</v>
       </c>
       <c r="K8">
-        <v>0.3269673964486515</v>
+        <v>0.8471807536894005</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2231436166929797</v>
+        <v>0.3083347108564709</v>
       </c>
       <c r="N8">
-        <v>1.788687396432916</v>
+        <v>0.8640312767998317</v>
       </c>
       <c r="O8">
-        <v>3.540983155448288</v>
+        <v>1.675384411071278</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3864215199585033</v>
+        <v>1.038038639376737</v>
       </c>
       <c r="C9">
-        <v>0.05505650435607379</v>
+        <v>0.166188827644433</v>
       </c>
       <c r="D9">
-        <v>0.1918799720279907</v>
+        <v>0.1847692627909368</v>
       </c>
       <c r="E9">
-        <v>0.1635303835630531</v>
+        <v>0.1201439318329065</v>
       </c>
       <c r="F9">
-        <v>1.45470374531218</v>
+        <v>0.7908334754343826</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7172940576753675</v>
+        <v>0.3178176280735272</v>
       </c>
       <c r="J9">
-        <v>0.1830973222097398</v>
+        <v>0.1106367574688818</v>
       </c>
       <c r="K9">
-        <v>0.4121104515646721</v>
+        <v>1.137454111630234</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2497109429754687</v>
+        <v>0.4095924059243359</v>
       </c>
       <c r="N9">
-        <v>1.74896564791001</v>
+        <v>0.7720570822958113</v>
       </c>
       <c r="O9">
-        <v>3.507891647955432</v>
+        <v>1.755785229395542</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4436968565299821</v>
+        <v>1.233992791819787</v>
       </c>
       <c r="C10">
-        <v>0.06414379003196302</v>
+        <v>0.1974152535194236</v>
       </c>
       <c r="D10">
-        <v>0.1987639042002201</v>
+        <v>0.2144693225849466</v>
       </c>
       <c r="E10">
-        <v>0.166372340129552</v>
+        <v>0.1358627281303235</v>
       </c>
       <c r="F10">
-        <v>1.454369587396641</v>
+        <v>0.8448214691941871</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7102584158738985</v>
+        <v>0.3185388112464622</v>
       </c>
       <c r="J10">
-        <v>0.1841988407840986</v>
+        <v>0.1214056097143228</v>
       </c>
       <c r="K10">
-        <v>0.4748260051609918</v>
+        <v>1.352106220737937</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2696520957710078</v>
+        <v>0.4850979919708394</v>
       </c>
       <c r="N10">
-        <v>1.722383528284893</v>
+        <v>0.7099119812785522</v>
       </c>
       <c r="O10">
-        <v>3.49160906164559</v>
+        <v>1.832010030038049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4697914353129988</v>
+        <v>1.323541989836485</v>
       </c>
       <c r="C11">
-        <v>0.06827712184980328</v>
+        <v>0.2116996443066483</v>
       </c>
       <c r="D11">
-        <v>0.2019699361011646</v>
+        <v>0.2281454753831582</v>
       </c>
       <c r="E11">
-        <v>0.1677367983865565</v>
+        <v>0.143177577359733</v>
       </c>
       <c r="F11">
-        <v>1.454926148821798</v>
+        <v>0.8710584005504813</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7073982118876181</v>
+        <v>0.3196526437003193</v>
       </c>
       <c r="J11">
-        <v>0.1847850570588179</v>
+        <v>0.1265059501480721</v>
       </c>
       <c r="K11">
-        <v>0.5033882239912373</v>
+        <v>1.450217040476332</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2788141604497412</v>
+        <v>0.519758200050866</v>
       </c>
       <c r="N11">
-        <v>1.710854663553303</v>
+        <v>0.6829032817388834</v>
       </c>
       <c r="O11">
-        <v>3.485943132268517</v>
+        <v>1.870887189085011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4796780476887932</v>
+        <v>1.357522581000183</v>
       </c>
       <c r="C12">
-        <v>0.06984218311505686</v>
+        <v>0.2171226113934779</v>
       </c>
       <c r="D12">
-        <v>0.2031946012229184</v>
+        <v>0.233350414981814</v>
       </c>
       <c r="E12">
-        <v>0.1682637425173645</v>
+        <v>0.1459731442714123</v>
       </c>
       <c r="F12">
-        <v>1.455238639386209</v>
+        <v>0.8812522057260139</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7063640362688304</v>
+        <v>0.3201943947864514</v>
       </c>
       <c r="J12">
-        <v>0.1850192592821145</v>
+        <v>0.128468565916755</v>
       </c>
       <c r="K12">
-        <v>0.514208229730599</v>
+        <v>1.487449566853797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2822964811779514</v>
+        <v>0.5329340553276936</v>
       </c>
       <c r="N12">
-        <v>1.706569980049891</v>
+        <v>0.6728647908281968</v>
       </c>
       <c r="O12">
-        <v>3.484047744935879</v>
+        <v>1.886255412873993</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4775485680616498</v>
+        <v>1.350200936788895</v>
       </c>
       <c r="C13">
-        <v>0.06950512654360352</v>
+        <v>0.2159540259606416</v>
       </c>
       <c r="D13">
-        <v>0.2029303774024527</v>
+        <v>0.2322282403812039</v>
       </c>
       <c r="E13">
-        <v>0.1681498004144331</v>
+        <v>0.145369898047786</v>
       </c>
       <c r="F13">
-        <v>1.455166816891534</v>
+        <v>0.8790450068837004</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7065845890042262</v>
+        <v>0.3200722677298735</v>
       </c>
       <c r="J13">
-        <v>0.1849682768113823</v>
+        <v>0.1280444553323932</v>
       </c>
       <c r="K13">
-        <v>0.5118777741094505</v>
+        <v>1.479427092515721</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2815459330053045</v>
+        <v>0.5300940426783995</v>
       </c>
       <c r="N13">
-        <v>1.707489158351761</v>
+        <v>0.6750182202942292</v>
       </c>
       <c r="O13">
-        <v>3.484444826859772</v>
+        <v>1.882916149088061</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.470604712584219</v>
+        <v>1.326336116929582</v>
       </c>
       <c r="C14">
-        <v>0.06840588360722677</v>
+        <v>0.2121455047247593</v>
       </c>
       <c r="D14">
-        <v>0.2020704779744591</v>
+        <v>0.2285731526636283</v>
       </c>
       <c r="E14">
-        <v>0.1677799451796069</v>
+        <v>0.143407045716831</v>
       </c>
       <c r="F14">
-        <v>1.454949819642763</v>
+        <v>0.8718917688019019</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7073121492882457</v>
+        <v>0.3196947680761895</v>
       </c>
       <c r="J14">
-        <v>0.1848040803664475</v>
+        <v>0.1266667765026668</v>
       </c>
       <c r="K14">
-        <v>0.5042783132300599</v>
+        <v>1.453278498278166</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2791003967827876</v>
+        <v>0.5208411327168747</v>
       </c>
       <c r="N14">
-        <v>1.71050053562765</v>
+        <v>0.682073572905491</v>
       </c>
       <c r="O14">
-        <v>3.485782184784739</v>
+        <v>1.872138339233715</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4663520563918269</v>
+        <v>1.311727729109322</v>
       </c>
       <c r="C15">
-        <v>0.06773254511311677</v>
+        <v>0.2098145432120475</v>
       </c>
       <c r="D15">
-        <v>0.2015451435021305</v>
+        <v>0.2263377722198641</v>
       </c>
       <c r="E15">
-        <v>0.1675547320362369</v>
+        <v>0.1422081353434912</v>
       </c>
       <c r="F15">
-        <v>1.454830146457326</v>
+        <v>0.8675443913109007</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7077641714203509</v>
+        <v>0.3194793762619419</v>
       </c>
       <c r="J15">
-        <v>0.1847050952407514</v>
+        <v>0.1258270443061136</v>
       </c>
       <c r="K15">
-        <v>0.4996239426338605</v>
+        <v>1.43727256952775</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2776041021230427</v>
+        <v>0.5151802530933551</v>
       </c>
       <c r="N15">
-        <v>1.712355646565843</v>
+        <v>0.6864200461841863</v>
       </c>
       <c r="O15">
-        <v>3.486633929905139</v>
+        <v>1.865622078297719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4419922668679988</v>
+        <v>1.228149728818295</v>
       </c>
       <c r="C16">
-        <v>0.06387365088511388</v>
+        <v>0.1964835300072707</v>
       </c>
       <c r="D16">
-        <v>0.1985558728129604</v>
+        <v>0.2135790752830644</v>
       </c>
       <c r="E16">
-        <v>0.1662846070079844</v>
+        <v>0.1353881568962869</v>
       </c>
       <c r="F16">
-        <v>1.454347459495793</v>
+        <v>0.8431420278596278</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7104521838597577</v>
+        <v>0.3184824177722518</v>
       </c>
       <c r="J16">
-        <v>0.184162240920493</v>
+        <v>0.1210765347537475</v>
       </c>
       <c r="K16">
-        <v>0.4729600038813544</v>
+        <v>1.345704910316158</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2690551418616565</v>
+        <v>0.4828396441243044</v>
       </c>
       <c r="N16">
-        <v>1.723148306947505</v>
+        <v>0.711703096153371</v>
       </c>
       <c r="O16">
-        <v>3.492014362532643</v>
+        <v>1.829557405984417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.427058110318228</v>
+        <v>1.17698993238281</v>
       </c>
       <c r="C17">
-        <v>0.0615061634314884</v>
+        <v>0.1883273361064255</v>
       </c>
       <c r="D17">
-        <v>0.1967410598429638</v>
+        <v>0.2057959855417124</v>
       </c>
       <c r="E17">
-        <v>0.1655237404939811</v>
+        <v>0.1312477616427472</v>
       </c>
       <c r="F17">
-        <v>1.454232715915367</v>
+        <v>0.8286135403391199</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7121883489067251</v>
+        <v>0.3180768982379902</v>
       </c>
       <c r="J17">
-        <v>0.1838510022023669</v>
+        <v>0.1182154238254753</v>
       </c>
       <c r="K17">
-        <v>0.4566104820271164</v>
+        <v>1.289659257991445</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2638337274120985</v>
+        <v>0.4630837830010606</v>
       </c>
       <c r="N17">
-        <v>1.72991358765178</v>
+        <v>0.7275418594873533</v>
       </c>
       <c r="O17">
-        <v>3.495760885537067</v>
+        <v>1.808538236363944</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.418472152152674</v>
+        <v>1.147601903543659</v>
       </c>
       <c r="C18">
-        <v>0.06014440233161622</v>
+        <v>0.1836434242454459</v>
       </c>
       <c r="D18">
-        <v>0.1957042455129852</v>
+        <v>0.201334785737231</v>
       </c>
       <c r="E18">
-        <v>0.1650928559844118</v>
+        <v>0.1288816547257099</v>
       </c>
       <c r="F18">
-        <v>1.454233422070523</v>
+        <v>0.8204139416371916</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.713218981146337</v>
+        <v>0.317917171573658</v>
       </c>
       <c r="J18">
-        <v>0.1836800003621235</v>
+        <v>0.116588615299662</v>
       </c>
       <c r="K18">
-        <v>0.4472097722238004</v>
+        <v>1.257466152613148</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2608390603497455</v>
+        <v>0.4517497588996804</v>
       </c>
       <c r="N18">
-        <v>1.733857833716041</v>
+        <v>0.7367701382154306</v>
       </c>
       <c r="O18">
-        <v>3.498079678553097</v>
+        <v>1.796841419709267</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4155657592212378</v>
+        <v>1.137657765242324</v>
       </c>
       <c r="C19">
-        <v>0.05968332774365592</v>
+        <v>0.1820587191659371</v>
       </c>
       <c r="D19">
-        <v>0.1953544064676009</v>
+        <v>0.1998268824525979</v>
       </c>
       <c r="E19">
-        <v>0.1649481259500511</v>
+        <v>0.1280831080672193</v>
       </c>
       <c r="F19">
-        <v>1.454245122411535</v>
+        <v>0.8176641221110756</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7135734383317249</v>
+        <v>0.3178755119404215</v>
       </c>
       <c r="J19">
-        <v>0.1836234793779781</v>
+        <v>0.1160409732235266</v>
       </c>
       <c r="K19">
-        <v>0.4440274037990832</v>
+        <v>1.246573093333268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2598265925674781</v>
+        <v>0.4479170654276388</v>
       </c>
       <c r="N19">
-        <v>1.73520239598832</v>
+        <v>0.7399147549687313</v>
       </c>
       <c r="O19">
-        <v>3.498892936468678</v>
+        <v>1.792947313866279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4286474902186228</v>
+        <v>1.182431994104974</v>
       </c>
       <c r="C20">
-        <v>0.06175819164961638</v>
+        <v>0.1891948031677941</v>
       </c>
       <c r="D20">
-        <v>0.1969335241752788</v>
+        <v>0.2066228959238998</v>
       </c>
       <c r="E20">
-        <v>0.1656040382178006</v>
+        <v>0.1316869123988518</v>
       </c>
       <c r="F20">
-        <v>1.454238028139628</v>
+        <v>0.8301437727814971</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7120002157072172</v>
+        <v>0.3181124085412534</v>
       </c>
       <c r="J20">
-        <v>0.1838833048243984</v>
+        <v>0.1185180296371158</v>
       </c>
       <c r="K20">
-        <v>0.4583505995758514</v>
+        <v>1.295620882946906</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2643886722104511</v>
+        <v>0.4651837828872019</v>
       </c>
       <c r="N20">
-        <v>1.729187922851199</v>
+        <v>0.7258435041185565</v>
       </c>
       <c r="O20">
-        <v>3.495345100933434</v>
+        <v>1.810734807969055</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.472644155581122</v>
+        <v>1.333343790886317</v>
       </c>
       <c r="C21">
-        <v>0.06872876228698033</v>
+        <v>0.2132637660193382</v>
       </c>
       <c r="D21">
-        <v>0.2023227641316225</v>
+        <v>0.229646013866116</v>
       </c>
       <c r="E21">
-        <v>0.1678883027366389</v>
+        <v>0.143982872168575</v>
       </c>
       <c r="F21">
-        <v>1.455010797263313</v>
+        <v>0.8739856913213089</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7070971196353888</v>
+        <v>0.3198023352670987</v>
       </c>
       <c r="J21">
-        <v>0.1848519775486963</v>
+        <v>0.1270705680467117</v>
       </c>
       <c r="K21">
-        <v>0.5065103520493608</v>
+        <v>1.460956690111828</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2798183630344013</v>
+        <v>0.523557509577536</v>
       </c>
       <c r="N21">
-        <v>1.709613821348324</v>
+        <v>0.6799960482901639</v>
       </c>
       <c r="O21">
-        <v>3.485382582131763</v>
+        <v>1.875286154894525</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5014283491991307</v>
+        <v>1.432388771729933</v>
       </c>
       <c r="C22">
-        <v>0.07328357554058584</v>
+        <v>0.2290757652091315</v>
       </c>
       <c r="D22">
-        <v>0.2059067421415364</v>
+        <v>0.244846116084517</v>
       </c>
       <c r="E22">
-        <v>0.1694409439306241</v>
+        <v>0.1521691668717828</v>
       </c>
       <c r="F22">
-        <v>1.45610874933692</v>
+        <v>0.9041541467350669</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7041778061416899</v>
+        <v>0.3216096127625612</v>
       </c>
       <c r="J22">
-        <v>0.1855562461516342</v>
+        <v>0.1328433115041037</v>
       </c>
       <c r="K22">
-        <v>0.538009243054006</v>
+        <v>1.569486862794918</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2899773384331255</v>
+        <v>0.5620071500815556</v>
       </c>
       <c r="N22">
-        <v>1.697293431696187</v>
+        <v>0.6511383387998535</v>
       </c>
       <c r="O22">
-        <v>3.48032963523724</v>
+        <v>1.921262719379683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4860631367975827</v>
+        <v>1.37948458851892</v>
       </c>
       <c r="C23">
-        <v>0.07085268662369515</v>
+        <v>0.2206283125235302</v>
       </c>
       <c r="D23">
-        <v>0.2039882848689842</v>
+        <v>0.2367187279341465</v>
       </c>
       <c r="E23">
-        <v>0.1686068195907389</v>
+        <v>0.1477855637958641</v>
       </c>
       <c r="F23">
-        <v>1.455468553610487</v>
+        <v>0.8879080519177762</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7057098145275482</v>
+        <v>0.3205783081891482</v>
       </c>
       <c r="J23">
-        <v>0.185173860171524</v>
+        <v>0.1297447498713566</v>
       </c>
       <c r="K23">
-        <v>0.5211957127045537</v>
+        <v>1.511514288340067</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2845485264382717</v>
+        <v>0.5414564475187902</v>
       </c>
       <c r="N23">
-        <v>1.703825821957159</v>
+        <v>0.6664363409221647</v>
       </c>
       <c r="O23">
-        <v>3.482893131832355</v>
+        <v>1.896362914059864</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4279289318751864</v>
+        <v>1.179971562797647</v>
       </c>
       <c r="C24">
-        <v>0.06164425174588928</v>
+        <v>0.1888026053127447</v>
       </c>
       <c r="D24">
-        <v>0.1968464906540532</v>
+        <v>0.2062490081664379</v>
       </c>
       <c r="E24">
-        <v>0.1655677152179535</v>
+        <v>0.1314883280680768</v>
       </c>
       <c r="F24">
-        <v>1.454235418787391</v>
+        <v>0.8294514793536933</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7120851695276897</v>
+        <v>0.3180961261938968</v>
       </c>
       <c r="J24">
-        <v>0.183868676095166</v>
+        <v>0.118381165395661</v>
       </c>
       <c r="K24">
-        <v>0.4575638959768469</v>
+        <v>1.292925545191764</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2641377592448748</v>
+        <v>0.4642342989858861</v>
       </c>
       <c r="N24">
-        <v>1.729515825221105</v>
+        <v>0.7266109500273168</v>
       </c>
       <c r="O24">
-        <v>3.495532563587517</v>
+        <v>1.809740534478806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3653680542051063</v>
+        <v>0.9661663309703385</v>
       </c>
       <c r="C25">
-        <v>0.05170997943602629</v>
+        <v>0.1547448450646698</v>
       </c>
       <c r="D25">
-        <v>0.1894116032949</v>
+        <v>0.173964109023089</v>
       </c>
       <c r="E25">
-        <v>0.1625476303474507</v>
+        <v>0.1144885397320081</v>
       </c>
       <c r="F25">
-        <v>1.455456083501055</v>
+        <v>0.7723304779893283</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7201869061991992</v>
+        <v>0.3182047028653834</v>
       </c>
       <c r="J25">
-        <v>0.1827673282248909</v>
+        <v>0.1068355171113993</v>
       </c>
       <c r="K25">
-        <v>0.3890473657480129</v>
+        <v>1.058734290903118</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2424491439794423</v>
+        <v>0.3820265402296243</v>
       </c>
       <c r="N25">
-        <v>1.75925431276824</v>
+        <v>0.796012424020049</v>
       </c>
       <c r="O25">
-        <v>3.515432863162175</v>
+        <v>1.731175372652359</v>
       </c>
     </row>
   </sheetData>
